--- a/Assets/Data/TestBattle.xlsx
+++ b/Assets/Data/TestBattle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6620"/>
   </bookViews>
   <sheets>
     <sheet name="TestBattle" sheetId="1" r:id="rId1"/>
@@ -44,10 +44,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -58,6 +58,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -65,16 +88,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,7 +120,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,36 +158,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,14 +168,6 @@
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,22 +188,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -187,16 +195,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,37 +211,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,145 +379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,6 +402,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -420,17 +450,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,33 +494,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -487,21 +502,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -510,145 +510,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1891,7 +1891,7 @@
         </row>
         <row r="145">
           <cell r="A145">
-            <v>500017</v>
+            <v>500170</v>
           </cell>
           <cell r="B145" t="str">
             <v>【塔】</v>
@@ -1899,7 +1899,7 @@
         </row>
         <row r="146">
           <cell r="A146">
-            <v>500018</v>
+            <v>500180</v>
           </cell>
           <cell r="B146" t="str">
             <v>【星】</v>
@@ -1907,7 +1907,7 @@
         </row>
         <row r="147">
           <cell r="A147">
-            <v>500019</v>
+            <v>500190</v>
           </cell>
           <cell r="B147" t="str">
             <v>【月】</v>
@@ -1915,7 +1915,7 @@
         </row>
         <row r="148">
           <cell r="A148">
-            <v>500020</v>
+            <v>500200</v>
           </cell>
           <cell r="B148" t="str">
             <v>【太陽】</v>
@@ -1923,7 +1923,7 @@
         </row>
         <row r="149">
           <cell r="A149">
-            <v>500021</v>
+            <v>500210</v>
           </cell>
           <cell r="B149" t="str">
             <v>【審判】</v>
@@ -1931,7 +1931,7 @@
         </row>
         <row r="150">
           <cell r="A150">
-            <v>500022</v>
+            <v>500220</v>
           </cell>
           <cell r="B150" t="str">
             <v>【世界】</v>
@@ -2345,17 +2345,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="7.63636363636364" customWidth="1"/>
-    <col min="3" max="3" width="3.54545454545455" customWidth="1"/>
+    <col min="3" max="3" width="7.54545454545455" customWidth="1"/>
     <col min="4" max="4" width="7.45454545454545" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
@@ -2409,6 +2409,20 @@
       <c r="E3" t="str">
         <f>INDEX([2]TextData!B:B,MATCH(A3,[2]TextData!A:A))</f>
         <v>エリザベート</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>500220</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2423,8 +2437,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="3"/>

--- a/Assets/Data/TestBattle.xlsx
+++ b/Assets/Data/TestBattle.xlsx
@@ -45,9 +45,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -58,9 +58,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -68,14 +67,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,8 +127,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -112,75 +158,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -189,7 +174,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,49 +211,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,19 +337,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,109 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,36 +402,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,15 +424,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -473,6 +434,26 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,13 +473,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,16 +510,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,127 +528,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1763,130 +1763,130 @@
         </row>
         <row r="129">
           <cell r="A129">
-            <v>500001</v>
+            <v>500010</v>
           </cell>
           <cell r="B129" t="str">
-            <v>【愚者】</v>
+            <v>軍神の采配</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>500002</v>
+            <v>500020</v>
           </cell>
           <cell r="B130" t="str">
-            <v>【魔術師】</v>
+            <v>蛮勇の狼煙</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>500003</v>
+            <v>500030</v>
           </cell>
           <cell r="B131" t="str">
-            <v>【女教皇】</v>
+            <v>戦神の剣</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>500004</v>
+            <v>500040</v>
           </cell>
           <cell r="B132" t="str">
-            <v>【女帝】</v>
+            <v>不死鳥の聖炎</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>500005</v>
+            <v>500050</v>
           </cell>
           <cell r="B133" t="str">
-            <v>【皇帝】</v>
+            <v>女神の抱擁</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>500006</v>
+            <v>500060</v>
           </cell>
           <cell r="B134" t="str">
-            <v>【法王】</v>
+            <v>戦士の奮起</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>500007</v>
+            <v>500070</v>
           </cell>
           <cell r="B135" t="str">
-            <v>【恋愛】</v>
+            <v>闘神の鼓舞</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>500008</v>
+            <v>500080</v>
           </cell>
           <cell r="B136" t="str">
-            <v>【戦車】</v>
+            <v>回避の加護</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>500009</v>
+            <v>500090</v>
           </cell>
           <cell r="B137" t="str">
-            <v>【正義】</v>
+            <v>戦神の盾</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>500010</v>
+            <v>500100</v>
           </cell>
           <cell r="B138" t="str">
-            <v>【隠者】</v>
+            <v>戦神の加護</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>500011</v>
+            <v>500110</v>
           </cell>
           <cell r="B139" t="str">
-            <v>【運命】</v>
+            <v>闘神の守護</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140">
-            <v>500012</v>
+            <v>500120</v>
           </cell>
           <cell r="B140" t="str">
-            <v>【剛毅】</v>
+            <v>天使の竪琴</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>500013</v>
+            <v>500130</v>
           </cell>
           <cell r="B141" t="str">
-            <v>【刑死者】</v>
+            <v>命中の加護</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>500014</v>
+            <v>500140</v>
           </cell>
           <cell r="B142" t="str">
-            <v>【死神】</v>
+            <v>神速の風</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143">
-            <v>500015</v>
+            <v>500150</v>
           </cell>
           <cell r="B143" t="str">
-            <v>【節制】</v>
+            <v>龍神の松明</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>500016</v>
+            <v>500160</v>
           </cell>
           <cell r="B144" t="str">
-            <v>【悪魔】</v>
+            <v>聖龍の咆哮</v>
           </cell>
         </row>
         <row r="145">
@@ -1894,7 +1894,7 @@
             <v>500170</v>
           </cell>
           <cell r="B145" t="str">
-            <v>【塔】</v>
+            <v>ジャッジレイン</v>
           </cell>
         </row>
         <row r="146">
@@ -1902,7 +1902,7 @@
             <v>500180</v>
           </cell>
           <cell r="B146" t="str">
-            <v>【星】</v>
+            <v>霊王の聖棺</v>
           </cell>
         </row>
         <row r="147">
@@ -1910,7 +1910,7 @@
             <v>500190</v>
           </cell>
           <cell r="B147" t="str">
-            <v>【月】</v>
+            <v>黄泉の歌声</v>
           </cell>
         </row>
         <row r="148">
@@ -1918,7 +1918,7 @@
             <v>500200</v>
           </cell>
           <cell r="B148" t="str">
-            <v>【太陽】</v>
+            <v>戦女神の刃</v>
           </cell>
         </row>
         <row r="149">
@@ -1926,7 +1926,7 @@
             <v>500210</v>
           </cell>
           <cell r="B149" t="str">
-            <v>【審判】</v>
+            <v>天怒の閃光</v>
           </cell>
         </row>
         <row r="150">
@@ -1934,7 +1934,7 @@
             <v>500220</v>
           </cell>
           <cell r="B150" t="str">
-            <v>【世界】</v>
+            <v>シャイントルネード</v>
           </cell>
         </row>
       </sheetData>
@@ -2348,7 +2348,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>500220</v>
+        <v>500020</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2435,13 +2435,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
@@ -2456,11 +2456,11 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX(TestBattle!E:E,MATCH(A2,TestBattle!A:A))</f>
-        <v>ミカ</v>
+        <v>エリザベート</v>
       </c>
       <c r="C2">
         <v>1060</v>
@@ -2470,86 +2470,6 @@
         <v>イクスティンクション</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="str">
-        <f>INDEX(TestBattle!E:E,MATCH(A3,TestBattle!A:A))</f>
-        <v>ミカ</v>
-      </c>
-      <c r="C3">
-        <v>1060</v>
-      </c>
-      <c r="D3" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C3,[1]TextData!A:A))</f>
-        <v>イクスティンクション</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="str">
-        <f>INDEX(TestBattle!E:E,MATCH(A4,TestBattle!A:A))</f>
-        <v>ミカ</v>
-      </c>
-      <c r="C4">
-        <v>1060</v>
-      </c>
-      <c r="D4" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C4,[1]TextData!A:A))</f>
-        <v>イクスティンクション</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="str">
-        <f>INDEX(TestBattle!E:E,MATCH(A5,TestBattle!A:A))</f>
-        <v>ミカ</v>
-      </c>
-      <c r="C5">
-        <v>1060</v>
-      </c>
-      <c r="D5" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C5,[1]TextData!A:A))</f>
-        <v>イクスティンクション</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="str">
-        <f>INDEX(TestBattle!E:E,MATCH(A6,TestBattle!A:A))</f>
-        <v>ミカ</v>
-      </c>
-      <c r="C6">
-        <v>1060</v>
-      </c>
-      <c r="D6" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C6,[1]TextData!A:A))</f>
-        <v>イクスティンクション</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="str">
-        <f>INDEX(TestBattle!E:E,MATCH(A7,TestBattle!A:A))</f>
-        <v>ミカ</v>
-      </c>
-      <c r="C7">
-        <v>1060</v>
-      </c>
-      <c r="D7" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C7,[1]TextData!A:A))</f>
-        <v>イクスティンクション</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Data/TestBattle.xlsx
+++ b/Assets/Data/TestBattle.xlsx
@@ -45,13 +45,126 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -65,129 +178,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,24 +210,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -240,157 +282,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,6 +401,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -428,15 +448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -448,17 +459,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,145 +509,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1152,20 +1152,20 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(A2,[1]TextData!A:A))</f>
-        <v>レダ</v>
+        <v>ミカ</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/TestBattle.xlsx
+++ b/Assets/Data/TestBattle.xlsx
@@ -43,10 +43,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -57,6 +57,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -64,16 +93,64 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,115 +164,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,187 +210,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,35 +401,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,6 +434,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -481,23 +485,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,145 +509,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -768,7 +768,7 @@
             <v>4</v>
           </cell>
           <cell r="B5" t="str">
-            <v>ノエル</v>
+            <v>シイナ</v>
           </cell>
         </row>
         <row r="6">
@@ -784,7 +784,7 @@
             <v>6</v>
           </cell>
           <cell r="B7" t="str">
-            <v>ナユタ</v>
+            <v>ケイティ</v>
           </cell>
         </row>
         <row r="8">
@@ -792,7 +792,7 @@
             <v>7</v>
           </cell>
           <cell r="B8" t="str">
-            <v>ケイト</v>
+            <v>ユニ</v>
           </cell>
         </row>
         <row r="9">
@@ -805,26 +805,26 @@
         </row>
         <row r="10">
           <cell r="A10">
-            <v>11</v>
+            <v>9</v>
           </cell>
           <cell r="B10" t="str">
-            <v>ヘカテー</v>
+            <v>ナツキ</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>13</v>
+            <v>10</v>
           </cell>
           <cell r="B11" t="str">
-            <v>アリス</v>
+            <v>メリアドール</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>14</v>
+            <v>11</v>
           </cell>
           <cell r="B12" t="str">
-            <v>フリル</v>
+            <v>セリナ</v>
           </cell>
         </row>
       </sheetData>
@@ -1120,13 +1120,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="7.63636363636364" customWidth="1"/>
@@ -1158,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1166,6 +1166,48 @@
       <c r="E2" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(A2,[1]TextData!A:A))</f>
         <v>ミカ</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/TestBattle.xlsx
+++ b/Assets/Data/TestBattle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestBattle" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -57,6 +57,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -65,6 +72,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -72,22 +117,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,17 +127,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,9 +171,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,60 +180,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,14 +196,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,25 +210,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,145 +354,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,6 +419,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -430,39 +439,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,8 +461,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,142 +512,142 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -725,12 +725,14 @@
     <sheetNames>
       <sheetName val="Actors"/>
       <sheetName val="Learning"/>
+      <sheetName val="SkillTrigger"/>
       <sheetName val="TextData"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
             <v>Id</v>
@@ -784,7 +786,7 @@
             <v>6</v>
           </cell>
           <cell r="B7" t="str">
-            <v>ケイティ</v>
+            <v>リシェリ</v>
           </cell>
         </row>
         <row r="8">
@@ -1120,13 +1122,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="7.63636363636364" customWidth="1"/>
@@ -1158,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1166,48 +1168,6 @@
       <c r="E2" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(A2,[1]TextData!A:A))</f>
         <v>ミカ</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1182,7 @@
   <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/TestBattle.xlsx
+++ b/Assets/Data/TestBattle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="TestBattle" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -58,15 +58,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -74,67 +157,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,6 +171,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -156,13 +193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -170,36 +200,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -210,19 +210,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,163 +360,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,6 +401,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -415,30 +430,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,8 +452,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,23 +476,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +492,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -509,145 +509,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,8 +1124,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="E2" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(A2,[1]TextData!A:A))</f>
-        <v>ミカ</v>
+        <v>レダ</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1182,7 @@
   <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/TestBattle.xlsx
+++ b/Assets/Data/TestBattle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="6620"/>
   </bookViews>
   <sheets>
     <sheet name="TestBattle" sheetId="1" r:id="rId1"/>
@@ -45,8 +45,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -57,8 +57,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -66,98 +67,44 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +118,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -178,18 +140,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,6 +178,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -210,187 +210,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,6 +401,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -419,17 +469,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,52 +496,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,145 +509,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="E2" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(A2,[1]TextData!A:A))</f>
-        <v>レダ</v>
+        <v>シイナ</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/TestBattle.xlsx
+++ b/Assets/Data/TestBattle.xlsx
@@ -43,9 +43,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -57,8 +57,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -73,13 +110,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -87,10 +118,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,9 +163,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,76 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,25 +210,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,61 +360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,85 +378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,13 +404,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -430,15 +434,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -450,6 +445,44 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,39 +501,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -509,145 +509,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="4"/>

--- a/Assets/Data/TestBattle.xlsx
+++ b/Assets/Data/TestBattle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="TestBattle" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -57,6 +57,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -65,6 +103,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -73,75 +118,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,10 +143,46 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,32 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,55 +210,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,127 +348,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,6 +401,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -420,21 +464,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -445,44 +474,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +492,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -509,145 +509,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1154,20 +1154,20 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(A2,[1]TextData!A:A))</f>
-        <v>シイナ</v>
+        <v>ミカ</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/TestBattle.xlsx
+++ b/Assets/Data/TestBattle.xlsx
@@ -45,8 +45,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -57,6 +57,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,8 +72,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,11 +95,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,45 +162,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -142,52 +170,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,187 +210,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,6 +411,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,8 +457,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,45 +501,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -509,145 +509,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,13 +1122,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="7.63636363636364" customWidth="1"/>
@@ -1168,6 +1168,24 @@
       <c r="E2" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(A2,[1]TextData!A:A))</f>
         <v>ミカ</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(A3,[1]TextData!A:A))</f>
+        <v>エリザベート</v>
       </c>
     </row>
   </sheetData>
